--- a/Dados relatorio.xlsx
+++ b/Dados relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagobarbosa05/Documents/feup-rc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C719040-C5FB-7041-BCE0-EBEC867A1741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDCC99C-E6F9-0B47-9504-BC17157F74AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5421102A-9CD9-D348-9644-C6EAD263B2C4}"/>
   </bookViews>
@@ -36,21 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>ERRO BCC</t>
-  </si>
-  <si>
-    <t>ERRO BCC2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Bytes written</t>
   </si>
   <si>
     <t>VARIACAO DOS ERROS BCC E BCC 2 COM BAUDRATE 9600 TAMANHO DOS PACKETS 500 PARA FICHEIRO DE 10968</t>
@@ -75,24 +63,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,18 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,7 +219,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$10</c:f>
+              <c:f>Sheet1!$C$6:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -273,7 +243,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$I$10</c:f>
+              <c:f>Sheet1!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -323,7 +293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$5</c:f>
+              <c:f>Sheet1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -356,7 +326,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$I$10</c:f>
+              <c:f>Sheet1!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1236,13 +1206,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1570,575 +1540,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097D8E5E-C63F-DF44-9377-F6C710F03555}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.96989999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.93440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>11343</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E5" si="0">D4/C4</f>
-        <v>0.96693996297275853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>11343</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.96693996297275853</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>11343</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" ref="E6:E7" si="1">D6/C6</f>
-        <v>0.96693996297275853</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.96989999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>11343</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
-        <v>0.96693996297275853</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.93440000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>11343</v>
-      </c>
       <c r="D8" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E8" s="6">
-        <f>D8/C8</f>
-        <v>0.96693996297275853</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="9">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9">
         <v>0.87419999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>11343</v>
-      </c>
-      <c r="D9" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E9" s="8">
-        <f>D9/C9</f>
-        <v>0.96693996297275853</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="I9" s="9">
+      <c r="D9" s="5">
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>12360</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" ref="E10:E12" si="2">D10/C10</f>
-        <v>0.88737864077669903</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
         <v>15</v>
       </c>
-      <c r="I10" s="9">
+      <c r="D10" s="5">
         <v>0.7581</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11851</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.9254915197029786</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11851</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E12" s="8">
-        <f>D12/C12</f>
-        <v>0.9254915197029786</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11343</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" ref="E13" si="3">D13/C13</f>
-        <v>0.96693996297275853</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>11851</v>
-      </c>
-      <c r="D14" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" ref="E13:E22" si="4">D14/C14</f>
-        <v>0.9254915197029786</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>13381</v>
-      </c>
-      <c r="D15" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="4"/>
-        <v>0.81966968089081538</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5">
-        <v>11343</v>
-      </c>
-      <c r="D16" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="4"/>
-        <v>0.96693996297275853</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>14945</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="4"/>
-        <v>0.7338909334225493</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>11856</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.9251012145748988</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11851</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9254915197029786</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>10</v>
-      </c>
-      <c r="B20" s="7">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>13895</v>
-      </c>
-      <c r="D20" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="4"/>
-        <v>0.78934868657790569</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7">
-        <v>10</v>
-      </c>
-      <c r="C21" s="7">
-        <v>14401</v>
-      </c>
-      <c r="D21" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="4"/>
-        <v>0.76161377682105413</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7">
-        <v>10</v>
-      </c>
-      <c r="C22" s="7">
-        <v>13414</v>
-      </c>
-      <c r="D22" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="4"/>
-        <v>0.81765319815118531</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>10</v>
-      </c>
-      <c r="B23" s="7">
-        <v>10</v>
-      </c>
-      <c r="C23" s="7">
-        <v>18043</v>
-      </c>
-      <c r="D23" s="7">
-        <v>10968</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" ref="E23:E28" si="5">D23/C23</f>
-        <v>0.60788117275397657</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5">
-        <v>13376</v>
-      </c>
-      <c r="D24" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="5"/>
-        <v>0.81997607655502391</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>15</v>
-      </c>
-      <c r="B25" s="5">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5">
-        <v>12416</v>
-      </c>
-      <c r="D25" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="5"/>
-        <v>0.88337628865979378</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5">
-        <v>18033</v>
-      </c>
-      <c r="D26" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="5"/>
-        <v>0.60821826651139577</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5">
-        <v>13447</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="5"/>
-        <v>0.81564661262735183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5">
-        <v>16537</v>
-      </c>
-      <c r="D28" s="5">
-        <v>10968</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="5"/>
-        <v>0.66324000725645527</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Dados relatorio.xlsx
+++ b/Dados relatorio.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagobarbosa05/Documents/feup-rc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDCC99C-E6F9-0B47-9504-BC17157F74AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198DB645-4817-A242-A0A0-94DBBE33E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5421102A-9CD9-D348-9644-C6EAD263B2C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{5421102A-9CD9-D348-9644-C6EAD263B2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>C</t>
+  </si>
   <si>
     <t>S</t>
   </si>
@@ -45,6 +52,21 @@
   </si>
   <si>
     <t>FER</t>
+  </si>
+  <si>
+    <t>VARIACAO DO T_PROP COM BAUDRATE 9600 TAMANHO DOS PACKETS 500 PARA FICHEIRO DE 10968</t>
+  </si>
+  <si>
+    <t>T_PROP</t>
+  </si>
+  <si>
+    <t>VARIACAO DO BAUDRATE TAMANHO DOS PACKETS 500 PARA FICHEIRO DE 10968</t>
+  </si>
+  <si>
+    <t>VARIACAO DO TAMANHO DOS PACKETS COM BAUDRATE 9600 PARA FICHEIRO DE 10968</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -646,7 +668,1704 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variação de eficiência com o T_PROP</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Variação da eficiência com FER</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83450000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84ED-8C44-806F-4291D608B0F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="495208688"/>
+        <c:axId val="495003840"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83450000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84ED-8C44-806F-4291D608B0F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="495208688"/>
+        <c:axId val="495003840"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="495208688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Tempo de propagação(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495003840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495003840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Eficiência S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> = R/C</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495208688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variação de eficiência com o Baudrate</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Variação da eficiência com FER</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95430000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2E9-FC42-BD4B-F2EE32B7C339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="495208688"/>
+        <c:axId val="495003840"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98319999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95430000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2E9-FC42-BD4B-F2EE32B7C339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="495208688"/>
+        <c:axId val="495003840"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="495208688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Baudrate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495003840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495003840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Eficiência S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> = R/C</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495208688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variação de eficiência com o tamanho</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> dos pacotes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Variação da eficiência com FER</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (4)'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (4)'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E6F-2A43-9085-28B73A42457C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="495208688"/>
+        <c:axId val="495003840"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (4)'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (4)'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E6F-2A43-9085-28B73A42457C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="495208688"/>
+        <c:axId val="495003840"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="495208688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Tamanho dos pacotes (bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495003840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495003840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Eficiência S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> = R/C</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495208688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1202,6 +2921,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1227,6 +4494,135 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D40B990-3A35-D748-8E88-719FB9FDBB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2AB39A-3BF8-044F-A803-31F3CF27EBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F581A80-AA2B-D44D-825A-94A4955A922E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1542,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097D8E5E-C63F-DF44-9377-F6C710F03555}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1556,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1567,10 +4963,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1681,4 +5077,459 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF5738-242F-394D-8121-B275D43BB35C}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.98319999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.92649999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.90429999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="C9" s="5">
+        <v>150</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.87429999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>250</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.83450000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11180863-B09B-984F-B080-E4BEB84ED4CD}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.98319999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>9600</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.97540000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="C8" s="5">
+        <v>19200</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="C9" s="5">
+        <v>38400</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.96650000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>57600</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.95430000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2008F161-B322-C142-949A-F0C465DA2F89}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <v>250</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.72340000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>500</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="C8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.85429999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="C9" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.89429999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.95340000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9038CD00-1294-A249-8A0A-EA2F00A86306}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>